--- a/DDAf_2022_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -124,7 +124,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -169,13 +169,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -193,7 +193,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -262,7 +262,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -274,7 +274,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -376,7 +376,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -394,7 +394,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -412,7 +412,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="175">
   <si>
     <t>Tableau 11 : Indicateurs des inégalités et de la pauvreté</t>
   </si>
@@ -1339,11 +1336,9 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1359,54 +1354,54 @@
     </row>
     <row r="2" spans="1:14" ht="95" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="12">
         <v>49.9</v>
@@ -1447,10 +1442,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="16">
         <v>14.5</v>
@@ -1491,10 +1486,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="21">
         <v>29.2</v>
@@ -1535,10 +1530,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="C6" s="21">
         <v>27.2</v>
@@ -1579,10 +1574,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="21">
         <v>69.2</v>
@@ -1623,10 +1618,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="21">
         <v>63.7</v>
@@ -1667,10 +1662,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="21">
         <v>13.8</v>
@@ -1711,10 +1706,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="21">
         <v>18.7</v>
@@ -1755,10 +1750,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="16">
         <v>58.7</v>
@@ -1799,10 +1794,10 @@
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="C12" s="25">
         <v>39.5</v>
@@ -1843,10 +1838,10 @@
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="30">
         <v>38.44</v>
@@ -1887,10 +1882,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="21">
         <v>72.8</v>
@@ -1931,10 +1926,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="21">
         <v>26</v>
@@ -1975,25 +1970,25 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="21">
         <v>66.556637210000005</v>
@@ -2019,10 +2014,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C17" s="12">
         <v>38.1</v>
@@ -2063,10 +2058,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="12">
         <v>39.6</v>
@@ -2107,10 +2102,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="C19" s="16">
         <v>77.2</v>
@@ -2151,25 +2146,25 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="12">
         <v>9.2169510619999997</v>
@@ -2195,10 +2190,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>54</v>
       </c>
       <c r="C21" s="12">
         <v>3.4</v>
@@ -2239,10 +2234,10 @@
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="C22" s="21">
         <v>35.6</v>
@@ -2260,22 +2255,22 @@
         <v>61.2</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N22" s="23">
         <v>10738.181</v>
@@ -2283,10 +2278,10 @@
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="30">
         <v>41.814285714285703</v>
@@ -2327,10 +2322,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C24" s="21">
         <v>19.100000000000001</v>
@@ -2371,10 +2366,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="C25" s="21">
         <v>17</v>
@@ -2392,22 +2387,22 @@
         <v>47.6</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N25" s="23">
         <v>10494.21</v>
@@ -2415,25 +2410,25 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>63</v>
-      </c>
       <c r="C26" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="21">
         <v>46.126628369999999</v>
@@ -2459,10 +2454,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="21">
         <v>30.8</v>
@@ -2503,10 +2498,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="21">
         <v>37.1</v>
@@ -2547,10 +2542,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="C29" s="21">
         <v>78.8</v>
@@ -2591,10 +2586,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="C30" s="21">
         <v>0.2</v>
@@ -2635,10 +2630,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="C31" s="21">
         <v>56.5</v>
@@ -2679,10 +2674,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="C32" s="21">
         <v>0.5</v>
@@ -2700,33 +2695,33 @@
         <v>39.1</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="C33" s="21">
         <v>68.599999999999994</v>
@@ -2741,7 +2736,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="21">
         <v>71.439795029999999</v>
@@ -2767,10 +2762,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="C34" s="16">
         <v>76.400000000000006</v>
@@ -2785,25 +2780,25 @@
         <v>44.1</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N34" s="18">
         <v>4759.2240000000002</v>
@@ -2811,10 +2806,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="C35" s="21">
         <v>12.2</v>
@@ -2855,10 +2850,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="C36" s="21">
         <v>49.4</v>
@@ -2899,10 +2894,10 @@
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="C37" s="21">
         <v>41.3</v>
@@ -2943,10 +2938,10 @@
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="30">
         <v>37.530769230769202</v>
@@ -2987,10 +2982,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="C39" s="12">
         <v>0.4</v>
@@ -3031,10 +3026,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="21">
         <v>3.8</v>
@@ -3075,25 +3070,25 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="34" t="s">
-        <v>92</v>
-      </c>
       <c r="C41" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H41" s="12">
         <v>9.4061017999999996E-2</v>
@@ -3119,10 +3114,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="C42" s="12">
         <v>6</v>
@@ -3163,10 +3158,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>96</v>
       </c>
       <c r="C43" s="21">
         <v>0.9</v>
@@ -3207,10 +3202,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>98</v>
       </c>
       <c r="C44" s="21">
         <v>0.2</v>
@@ -3251,10 +3246,10 @@
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="30">
         <v>2.2599999999999998</v>
@@ -3295,10 +3290,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="C46" s="21">
         <v>49.6</v>
@@ -3339,10 +3334,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="C47" s="21">
         <v>43.8</v>
@@ -3383,10 +3378,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="C48" s="21">
         <v>3.4</v>
@@ -3427,10 +3422,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C49" s="21">
         <v>29.8</v>
@@ -3471,10 +3466,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="C50" s="21">
         <v>10.3</v>
@@ -3515,10 +3510,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="C51" s="16">
         <v>12.7</v>
@@ -3559,10 +3554,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="C52" s="21">
         <v>36.1</v>
@@ -3603,25 +3598,25 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="C53" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H53" s="21">
         <v>58.383863060000003</v>
@@ -3647,10 +3642,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="C54" s="21">
         <v>44.4</v>
@@ -3691,25 +3686,25 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="20" t="s">
-        <v>119</v>
-      </c>
       <c r="C55" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H55" s="21">
         <v>44.330202749999998</v>
@@ -3735,10 +3730,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="C56" s="21">
         <v>45.4</v>
@@ -3779,10 +3774,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>123</v>
       </c>
       <c r="C57" s="12">
         <v>39.1</v>
@@ -3823,10 +3818,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>125</v>
       </c>
       <c r="C58" s="21">
         <v>38.5</v>
@@ -3867,10 +3862,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="C59" s="21">
         <v>43</v>
@@ -3911,10 +3906,10 @@
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="C60" s="16">
         <v>51.1</v>
@@ -3956,7 +3951,7 @@
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="30">
         <v>34.4</v>
@@ -3998,7 +3993,7 @@
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="35"/>
       <c r="B62" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="37">
         <v>33.8229166666667</v>
@@ -4040,7 +4035,7 @@
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="35"/>
       <c r="B63" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="37">
         <v>2.75</v>
@@ -4082,7 +4077,7 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="40"/>
       <c r="B64" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="42">
         <v>4.3789473684210503</v>
@@ -4124,7 +4119,7 @@
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="40"/>
       <c r="B65" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="46">
         <v>5.0227272727272698</v>
@@ -4166,7 +4161,7 @@
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="40"/>
       <c r="B66" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="50">
         <v>12.9657534246575</v>
@@ -4208,7 +4203,7 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="40"/>
       <c r="B67" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="46">
         <v>37.510526315789498</v>
@@ -4250,7 +4245,7 @@
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="40"/>
       <c r="B68" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="46">
         <v>28.265000000000001</v>
@@ -4292,7 +4287,7 @@
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="40"/>
       <c r="B69" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="46">
         <v>55.5833333333333</v>
@@ -4334,7 +4329,7 @@
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="40"/>
       <c r="B70" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="46">
         <v>44.344444444444498</v>
@@ -4376,7 +4371,7 @@
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="40"/>
       <c r="B71" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="46">
         <v>34.4</v>
@@ -4418,7 +4413,7 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="40"/>
       <c r="B72" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="46">
         <v>40.485714285714302</v>
@@ -4460,7 +4455,7 @@
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="40"/>
       <c r="B73" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="46">
         <v>38.1</v>
@@ -4502,7 +4497,7 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="40"/>
       <c r="B74" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="46">
         <v>1.875</v>
@@ -4544,7 +4539,7 @@
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="40"/>
       <c r="B75" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="50">
         <v>38.15</v>
@@ -4586,7 +4581,7 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="40"/>
       <c r="B76" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="46">
         <v>2.6714285714285699</v>
@@ -4628,7 +4623,7 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="40"/>
       <c r="B77" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="46">
         <v>2.3666666666666698</v>
@@ -4670,7 +4665,7 @@
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="40"/>
       <c r="B78" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="46">
         <v>0.4</v>
@@ -4688,22 +4683,22 @@
         <v>39.303703703703697</v>
       </c>
       <c r="H78" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I78" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J78" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K78" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L78" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M78" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N78" s="48">
         <v>86452.79172994</v>
@@ -4712,7 +4707,7 @@
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="40"/>
       <c r="B79" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="50">
         <v>0.50540540540541001</v>
@@ -4754,7 +4749,7 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="40"/>
       <c r="B80" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="46">
         <v>25.214285714285701</v>
@@ -4796,7 +4791,7 @@
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="40"/>
       <c r="B81" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="46">
         <v>5.1777777777777798</v>
@@ -4838,7 +4833,7 @@
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="40"/>
       <c r="B82" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="46">
         <v>35.292682926829301</v>
@@ -4880,7 +4875,7 @@
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="40"/>
       <c r="B83" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="50">
         <v>2.5044943820224699</v>
@@ -4922,7 +4917,7 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="40"/>
       <c r="B84" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="46">
         <v>50.510526315789498</v>
@@ -4964,7 +4959,7 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="40"/>
       <c r="B85" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="46">
         <v>18.3</v>
@@ -5006,7 +5001,7 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="40"/>
       <c r="B86" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="46">
         <v>26.639130434782601</v>
@@ -5048,7 +5043,7 @@
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="40"/>
       <c r="B87" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="46">
         <v>7.4291666666666698</v>
@@ -5090,7 +5085,7 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="40"/>
       <c r="B88" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="46">
         <v>10.119999999999999</v>
@@ -5132,7 +5127,7 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="40"/>
       <c r="B89" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="46">
         <v>1.78529411764706</v>
@@ -5174,7 +5169,7 @@
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="40"/>
       <c r="B90" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" s="50">
         <v>0.3175</v>
@@ -5216,7 +5211,7 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="40"/>
       <c r="B91" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" s="46">
         <v>45.196551724137898</v>
@@ -5258,7 +5253,7 @@
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="40"/>
       <c r="B92" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" s="46">
         <v>14.5875</v>
@@ -5300,7 +5295,7 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="40"/>
       <c r="B93" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" s="46">
         <v>11.76</v>
@@ -5342,7 +5337,7 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="40"/>
       <c r="B94" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C94" s="46">
         <v>8.6636363636363694</v>
@@ -5384,7 +5379,7 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="40"/>
       <c r="B95" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C95" s="46">
         <v>45.957142857142898</v>
@@ -5426,7 +5421,7 @@
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="40"/>
       <c r="B96" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="50">
         <v>2.2999999999999998</v>
@@ -5468,7 +5463,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="40"/>
       <c r="B97" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="46">
         <v>41.987096774193503</v>
@@ -5510,7 +5505,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="40"/>
       <c r="B98" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="46">
         <v>10.069230769230799</v>
@@ -5552,7 +5547,7 @@
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="40"/>
       <c r="B99" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" s="50">
         <v>42.94</v>
@@ -5609,7 +5604,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B101" s="57"/>
       <c r="C101" s="58"/>
@@ -5627,7 +5622,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B102" s="57"/>
       <c r="C102" s="58"/>
@@ -5645,7 +5640,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B103" s="57"/>
       <c r="C103" s="58"/>
@@ -5663,7 +5658,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B104" s="57"/>
       <c r="C104" s="58"/>
@@ -5681,7 +5676,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B105" s="57"/>
       <c r="C105" s="58"/>
@@ -5729,7 +5724,7 @@
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C108" s="58"/>
       <c r="D108" s="58"/>
@@ -5761,7 +5756,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C110" s="58"/>
       <c r="D110" s="58"/>
@@ -5778,7 +5773,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C111" s="58"/>
       <c r="D111" s="58"/>
@@ -5810,7 +5805,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="58"/>
       <c r="D113" s="58"/>
@@ -5827,7 +5822,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>
@@ -5859,7 +5854,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="176">
   <si>
     <t>Tableau 11 : Indicateurs des inégalités et de la pauvreté</t>
   </si>
@@ -502,19 +502,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -529,10 +532,10 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
+    <t>(1) Pourcentage de ménages dont les revenus pour l'année la plus récente rapportée entre 2010 et 2019 en dollars PPA 2011 en dessous du seuil de pauvreté défini par la Banque mondiale ; PRII = "pays à revenu intermédiaire de la tranche inférieure" ; PRIS = "pays à revenu intermédiaire supérieur";</t>
+  </si>
+  <si>
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
-  </si>
-  <si>
-    <t>(1) Pourcentage de ménages dont les revenus pour l'année la plus récente rapportée entre 2010 et 2019 en dollars PPA 2011 en dessous du seuil de pauvreté défini par la Banque mondiale ; PRII = "pays à revenu intermédiaire de la tranche inférieure" ; PRIS = "pays à revenu intermédiaire supérieur";</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
@@ -5289,7 +5292,7 @@
         <v>17.227931366</v>
       </c>
       <c r="N92" s="48">
-        <v>10196.977615968201</v>
+        <v>10199.686553236301</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -5421,7 +5424,7 @@
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="40"/>
       <c r="B96" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C96" s="50">
         <v>2.2999999999999998</v>
@@ -5463,7 +5466,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="40"/>
       <c r="B97" s="45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" s="46">
         <v>41.987096774193503</v>
@@ -5505,7 +5508,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="40"/>
       <c r="B98" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C98" s="46">
         <v>10.069230769230799</v>
@@ -5547,7 +5550,7 @@
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="40"/>
       <c r="B99" s="49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C99" s="50">
         <v>42.94</v>
@@ -5604,7 +5607,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B101" s="57"/>
       <c r="C101" s="58"/>
@@ -5622,7 +5625,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B102" s="57"/>
       <c r="C102" s="58"/>
@@ -5640,7 +5643,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B103" s="57"/>
       <c r="C103" s="58"/>
@@ -5658,7 +5661,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B104" s="57"/>
       <c r="C104" s="58"/>
@@ -5676,7 +5679,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B105" s="57"/>
       <c r="C105" s="58"/>
@@ -5724,7 +5727,7 @@
     </row>
     <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C108" s="58"/>
       <c r="D108" s="58"/>
@@ -5756,7 +5759,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C110" s="58"/>
       <c r="D110" s="58"/>
@@ -5773,7 +5776,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C111" s="58"/>
       <c r="D111" s="58"/>
@@ -5805,7 +5808,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C113" s="58"/>
       <c r="D113" s="58"/>
@@ -5822,7 +5825,7 @@
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>

--- a/DDAf_2022_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,19 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>% de la population en extrême pauvreté ($1.90 par jour, mesure la plus récente 2011-20)(1)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure (3.20 par jour, mesure la plus récente 2011-20)(1)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure ($5.50 par jour, mesure la plus récente 2011-20))(1)</t>
-  </si>
-  <si>
-    <t>Coefficient de Gini (estimations de la Banque Mondiale, données les plus récentes 2011-20)</t>
-  </si>
-  <si>
-    <t>Part des revenus détenus par les 20% de la population ayant les revenus les plus élevés (mesure la plus récente 2011-20)</t>
+    <t>% de la population en extrême pauvreté ($1.90 par jour, mesure la plus récente 2012-21)(1)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure (3.20 par jour, mesure la plus récente 2012-21)(1)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure ($5.50 par jour, mesure la plus récente 2012-21))(1)</t>
+  </si>
+  <si>
+    <t>Coefficient de Gini (estimations de la Banque Mondiale, données les plus récentes 2012-21)</t>
+  </si>
+  <si>
+    <t>Part des revenus détenus par les 20% de la population ayant les revenus les plus élevés (mesure la plus récente 2012-21)</t>
   </si>
   <si>
     <t>Taux de pauvreté des travailleurs, les deux sexes (population de 15 ans et plus), 2020</t>
@@ -1507,7 +1507,7 @@
         <v>54.6</v>
       </c>
       <c r="G5" s="22">
-        <v>60.3</v>
+        <v>60.2</v>
       </c>
       <c r="H5" s="21">
         <v>2.6364944220000002</v>
@@ -1583,19 +1583,19 @@
         <v>24</v>
       </c>
       <c r="C7" s="21">
-        <v>69.2</v>
+        <v>73.5</v>
       </c>
       <c r="D7" s="21">
-        <v>89</v>
+        <v>90.4</v>
       </c>
       <c r="E7" s="21">
-        <v>96.6</v>
+        <v>97.1</v>
       </c>
       <c r="F7" s="21">
-        <v>44.7</v>
+        <v>38.5</v>
       </c>
       <c r="G7" s="22">
-        <v>51.7</v>
+        <v>46.2</v>
       </c>
       <c r="H7" s="21">
         <v>64.177044330000001</v>
@@ -1847,19 +1847,19 @@
         <v>36</v>
       </c>
       <c r="C13" s="30">
-        <v>38.44</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="D13" s="30">
-        <v>58.82</v>
+        <v>58.96</v>
       </c>
       <c r="E13" s="30">
-        <v>76.040000000000006</v>
+        <v>76.09</v>
       </c>
       <c r="F13" s="30">
-        <v>53.23</v>
+        <v>52.61</v>
       </c>
       <c r="G13" s="31">
-        <v>57.97</v>
+        <v>57.41</v>
       </c>
       <c r="H13" s="30">
         <v>26.8738598214</v>
@@ -2023,19 +2023,19 @@
         <v>45</v>
       </c>
       <c r="C17" s="12">
-        <v>38.1</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D17" s="12">
-        <v>66.3</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E17" s="12">
-        <v>86.2</v>
+        <v>87.9</v>
       </c>
       <c r="F17" s="12">
-        <v>43.3</v>
+        <v>37.5</v>
       </c>
       <c r="G17" s="13">
-        <v>48.8</v>
+        <v>45.2</v>
       </c>
       <c r="H17" s="12">
         <v>33.590784679999999</v>
@@ -2066,20 +2066,20 @@
       <c r="B18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="12">
-        <v>39.6</v>
-      </c>
-      <c r="D18" s="12">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="E18" s="12">
-        <v>83.9</v>
-      </c>
-      <c r="F18" s="12">
-        <v>48.9</v>
-      </c>
-      <c r="G18" s="13">
-        <v>53.7</v>
+      <c r="C18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="H18" s="12">
         <v>34.734332500000001</v>
@@ -2243,19 +2243,19 @@
         <v>55</v>
       </c>
       <c r="C22" s="21">
-        <v>35.6</v>
+        <v>25.6</v>
       </c>
       <c r="D22" s="21">
-        <v>65.400000000000006</v>
+        <v>57</v>
       </c>
       <c r="E22" s="21">
-        <v>86.4</v>
+        <v>82.9</v>
       </c>
       <c r="F22" s="21">
-        <v>56.3</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="G22" s="22">
-        <v>61.2</v>
+        <v>47.9</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>43</v>
@@ -2287,19 +2287,19 @@
         <v>56</v>
       </c>
       <c r="C23" s="30">
-        <v>41.814285714285703</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D23" s="30">
-        <v>62.142857142857203</v>
+        <v>60.433333333333401</v>
       </c>
       <c r="E23" s="30">
-        <v>79.214285714285694</v>
+        <v>78.133333333333297</v>
       </c>
       <c r="F23" s="30">
-        <v>44.828571428571401</v>
+        <v>40.5833333333333</v>
       </c>
       <c r="G23" s="31">
-        <v>50.642857142857203</v>
+        <v>47.316666666666698</v>
       </c>
       <c r="H23" s="30">
         <v>37.628495035874998</v>
@@ -2642,7 +2642,7 @@
         <v>56.5</v>
       </c>
       <c r="D31" s="21">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="E31" s="21">
         <v>91.9</v>
@@ -2771,10 +2771,10 @@
         <v>78</v>
       </c>
       <c r="C34" s="16">
-        <v>76.400000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="D34" s="16">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="E34" s="16">
         <v>97.8</v>
@@ -2903,19 +2903,19 @@
         <v>84</v>
       </c>
       <c r="C37" s="21">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="D37" s="21">
-        <v>69.599999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="E37" s="21">
-        <v>87.6</v>
+        <v>89</v>
       </c>
       <c r="F37" s="21">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="G37" s="22">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="H37" s="21">
         <v>35.374234809999997</v>
@@ -2947,19 +2947,19 @@
         <v>85</v>
       </c>
       <c r="C38" s="30">
-        <v>37.530769230769202</v>
+        <v>37.515384615384598</v>
       </c>
       <c r="D38" s="30">
-        <v>58.5230769230769</v>
+        <v>58.607692307692297</v>
       </c>
       <c r="E38" s="30">
-        <v>74.869230769230796</v>
+        <v>74.9769230769231</v>
       </c>
       <c r="F38" s="30">
-        <v>39.7153846153846</v>
+        <v>39.707692307692298</v>
       </c>
       <c r="G38" s="31">
-        <v>46.609090909090902</v>
+        <v>46.5818181818182</v>
       </c>
       <c r="H38" s="30">
         <v>33.434962156454603</v>
@@ -2990,20 +2990,20 @@
       <c r="B39" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="D39" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="E39" s="12">
-        <v>28.6</v>
-      </c>
-      <c r="F39" s="12">
-        <v>27.6</v>
-      </c>
-      <c r="G39" s="13">
-        <v>37.200000000000003</v>
+      <c r="C39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="H39" s="12">
         <v>0.1234567</v>
@@ -3255,19 +3255,19 @@
         <v>98</v>
       </c>
       <c r="C45" s="30">
-        <v>2.2599999999999998</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="D45" s="30">
-        <v>13.4</v>
+        <v>15.824999999999999</v>
       </c>
       <c r="E45" s="30">
-        <v>41.54</v>
+        <v>44.774999999999999</v>
       </c>
       <c r="F45" s="30">
-        <v>32.799999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="G45" s="31">
-        <v>41.26</v>
+        <v>42.274999999999999</v>
       </c>
       <c r="H45" s="30">
         <v>0.61379598516667</v>
@@ -3299,19 +3299,19 @@
         <v>100</v>
       </c>
       <c r="C46" s="21">
-        <v>49.6</v>
+        <v>19.2</v>
       </c>
       <c r="D46" s="21">
-        <v>76.2</v>
+        <v>51.3</v>
       </c>
       <c r="E46" s="21">
-        <v>90.6</v>
+        <v>79.3</v>
       </c>
       <c r="F46" s="21">
-        <v>47.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="G46" s="22">
-        <v>52.1</v>
+        <v>45.4</v>
       </c>
       <c r="H46" s="21">
         <v>38.78210395</v>
@@ -3343,19 +3343,19 @@
         <v>102</v>
       </c>
       <c r="C47" s="21">
-        <v>43.8</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D47" s="21">
-        <v>76.7</v>
+        <v>61.8</v>
       </c>
       <c r="E47" s="21">
-        <v>92.3</v>
+        <v>80</v>
       </c>
       <c r="F47" s="21">
-        <v>35.299999999999997</v>
+        <v>47.3</v>
       </c>
       <c r="G47" s="22">
-        <v>44.3</v>
+        <v>54.3</v>
       </c>
       <c r="H47" s="21">
         <v>34.014100249999998</v>
@@ -3431,19 +3431,19 @@
         <v>106</v>
       </c>
       <c r="C49" s="21">
-        <v>29.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D49" s="21">
-        <v>59.1</v>
+        <v>34.9</v>
       </c>
       <c r="E49" s="21">
-        <v>83.2</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="F49" s="21">
-        <v>41.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="G49" s="22">
-        <v>47.8</v>
+        <v>44.7</v>
       </c>
       <c r="H49" s="21">
         <v>19.456592860000001</v>
@@ -3563,19 +3563,19 @@
         <v>112</v>
       </c>
       <c r="C52" s="21">
-        <v>36.1</v>
+        <v>23.2</v>
       </c>
       <c r="D52" s="21">
-        <v>70.900000000000006</v>
+        <v>60.4</v>
       </c>
       <c r="E52" s="21">
-        <v>92.5</v>
+        <v>89.8</v>
       </c>
       <c r="F52" s="21">
-        <v>33.700000000000003</v>
+        <v>29.6</v>
       </c>
       <c r="G52" s="22">
-        <v>41.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H52" s="21">
         <v>29.262305399999999</v>
@@ -3606,19 +3606,19 @@
       <c r="B53" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="22" t="s">
+      <c r="C53" s="21">
+        <v>24.7</v>
+      </c>
+      <c r="D53" s="21">
+        <v>59.5</v>
+      </c>
+      <c r="E53" s="21">
+        <v>86</v>
+      </c>
+      <c r="F53" s="21">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G53" s="22">
         <v>43</v>
       </c>
       <c r="H53" s="21">
@@ -3694,20 +3694,20 @@
       <c r="B55" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>43</v>
+      <c r="C55" s="21">
+        <v>16.3</v>
+      </c>
+      <c r="D55" s="21">
+        <v>49.5</v>
+      </c>
+      <c r="E55" s="21">
+        <v>77.8</v>
+      </c>
+      <c r="F55" s="21">
+        <v>36.1</v>
+      </c>
+      <c r="G55" s="22">
+        <v>43.9</v>
       </c>
       <c r="H55" s="21">
         <v>44.330202749999998</v>
@@ -3739,19 +3739,19 @@
         <v>120</v>
       </c>
       <c r="C56" s="21">
-        <v>45.4</v>
+        <v>41.4</v>
       </c>
       <c r="D56" s="21">
-        <v>77.2</v>
+        <v>75.2</v>
       </c>
       <c r="E56" s="21">
-        <v>93.6</v>
+        <v>91.8</v>
       </c>
       <c r="F56" s="21">
-        <v>34.299999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="G56" s="22">
-        <v>42.4</v>
+        <v>45.7</v>
       </c>
       <c r="H56" s="21">
         <v>39.485449940000002</v>
@@ -3827,19 +3827,19 @@
         <v>124</v>
       </c>
       <c r="C58" s="21">
-        <v>38.5</v>
+        <v>7.6</v>
       </c>
       <c r="D58" s="21">
-        <v>68.400000000000006</v>
+        <v>34</v>
       </c>
       <c r="E58" s="21">
-        <v>88.4</v>
+        <v>66.8</v>
       </c>
       <c r="F58" s="21">
-        <v>40.299999999999997</v>
+        <v>38.1</v>
       </c>
       <c r="G58" s="22">
-        <v>46.9</v>
+        <v>45.8</v>
       </c>
       <c r="H58" s="21">
         <v>30.439059919999998</v>
@@ -3915,19 +3915,19 @@
         <v>128</v>
       </c>
       <c r="C60" s="16">
-        <v>51.1</v>
+        <v>24.1</v>
       </c>
       <c r="D60" s="16">
-        <v>74.2</v>
+        <v>51.8</v>
       </c>
       <c r="E60" s="16">
-        <v>90.8</v>
+        <v>78</v>
       </c>
       <c r="F60" s="16">
-        <v>43.1</v>
+        <v>42.4</v>
       </c>
       <c r="G60" s="17">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
       <c r="H60" s="16">
         <v>35.12584236</v>
@@ -3957,19 +3957,19 @@
         <v>129</v>
       </c>
       <c r="C61" s="30">
-        <v>34.4</v>
+        <v>23.4866666666667</v>
       </c>
       <c r="D61" s="30">
-        <v>62.184615384615398</v>
+        <v>52.273333333333298</v>
       </c>
       <c r="E61" s="30">
-        <v>82.9538461538462</v>
+        <v>77.593333333333405</v>
       </c>
       <c r="F61" s="30">
-        <v>38.7615384615385</v>
+        <v>37.9</v>
       </c>
       <c r="G61" s="31">
-        <v>45.684615384615398</v>
+        <v>45.3466666666667</v>
       </c>
       <c r="H61" s="30">
         <v>30.897971057133301</v>
@@ -3999,19 +3999,19 @@
         <v>130</v>
       </c>
       <c r="C62" s="37">
-        <v>33.8229166666667</v>
+        <v>30.787500000000001</v>
       </c>
       <c r="D62" s="37">
-        <v>55.404166666666697</v>
+        <v>53.3645833333334</v>
       </c>
       <c r="E62" s="37">
-        <v>74.464583333333294</v>
+        <v>73.904166666666697</v>
       </c>
       <c r="F62" s="37">
-        <v>42.297916666666701</v>
+        <v>41.472916666666698</v>
       </c>
       <c r="G62" s="38">
-        <v>48.85</v>
+        <v>48.254347826086999</v>
       </c>
       <c r="H62" s="37">
         <v>28.0940696798</v>
@@ -4041,19 +4041,19 @@
         <v>131</v>
       </c>
       <c r="C63" s="37">
-        <v>2.75</v>
+        <v>2.7091836734693899</v>
       </c>
       <c r="D63" s="37">
-        <v>8.8683673469387791</v>
+        <v>8.9846938775510203</v>
       </c>
       <c r="E63" s="37">
-        <v>20.4765306122449</v>
+        <v>21.324489795918399</v>
       </c>
       <c r="F63" s="37">
-        <v>35.627551020408198</v>
+        <v>35.209183673469397</v>
       </c>
       <c r="G63" s="38">
-        <v>43.078571428571401</v>
+        <v>42.739795918367399</v>
       </c>
       <c r="H63" s="37">
         <v>4.7106812126399999</v>
@@ -4083,19 +4083,19 @@
         <v>132</v>
       </c>
       <c r="C64" s="42">
-        <v>4.3789473684210503</v>
+        <v>5.0105263157894804</v>
       </c>
       <c r="D64" s="42">
-        <v>10.9052631578947</v>
+        <v>12.1526315789474</v>
       </c>
       <c r="E64" s="42">
-        <v>24.4</v>
+        <v>26.705263157894699</v>
       </c>
       <c r="F64" s="42">
-        <v>45.5421052631579</v>
+        <v>45.6105263157895</v>
       </c>
       <c r="G64" s="43">
-        <v>51.057894736842101</v>
+        <v>51.068421052631599</v>
       </c>
       <c r="H64" s="42">
         <v>2.87615280623077</v>
@@ -4125,19 +4125,19 @@
         <v>133</v>
       </c>
       <c r="C65" s="46">
-        <v>5.0227272727272698</v>
+        <v>4.34</v>
       </c>
       <c r="D65" s="46">
-        <v>20.1181818181818</v>
+        <v>19.07</v>
       </c>
       <c r="E65" s="46">
-        <v>44.6681818181818</v>
+        <v>44.62</v>
       </c>
       <c r="F65" s="46">
-        <v>35.136363636363598</v>
+        <v>34.93</v>
       </c>
       <c r="G65" s="47">
-        <v>43.177272727272701</v>
+        <v>42.994999999999997</v>
       </c>
       <c r="H65" s="46">
         <v>7.8783222195000002</v>
@@ -4167,19 +4167,19 @@
         <v>134</v>
       </c>
       <c r="C66" s="50">
-        <v>12.9657534246575</v>
+        <v>11.940410958904099</v>
       </c>
       <c r="D66" s="50">
-        <v>24.167808219178099</v>
+        <v>23.575342465753401</v>
       </c>
       <c r="E66" s="50">
-        <v>38.226027397260303</v>
+        <v>38.610958904109602</v>
       </c>
       <c r="F66" s="50">
-        <v>37.820547945205497</v>
+        <v>37.268493150684897</v>
       </c>
       <c r="G66" s="51">
-        <v>44.922222222222203</v>
+        <v>44.501388888888897</v>
       </c>
       <c r="H66" s="50">
         <v>14.064036599504</v>
@@ -4209,19 +4209,19 @@
         <v>135</v>
       </c>
       <c r="C67" s="46">
-        <v>37.510526315789498</v>
+        <v>37.721052631578999</v>
       </c>
       <c r="D67" s="46">
-        <v>57.136842105263199</v>
+        <v>57.2631578947368</v>
       </c>
       <c r="E67" s="46">
-        <v>74.1105263157895</v>
+        <v>74.210526315789494</v>
       </c>
       <c r="F67" s="46">
-        <v>41.231578947368398</v>
+        <v>40.9</v>
       </c>
       <c r="G67" s="47">
-        <v>48.088888888888903</v>
+        <v>47.761111111111099</v>
       </c>
       <c r="H67" s="46">
         <v>31.7161413916842</v>
@@ -4251,19 +4251,19 @@
         <v>136</v>
       </c>
       <c r="C68" s="46">
-        <v>28.265000000000001</v>
+        <v>21.159090909090899</v>
       </c>
       <c r="D68" s="46">
-        <v>52.97</v>
+        <v>47.054545454545497</v>
       </c>
       <c r="E68" s="46">
-        <v>76.06</v>
+        <v>73.109090909090895</v>
       </c>
       <c r="F68" s="46">
-        <v>38.19</v>
+        <v>37.390909090909098</v>
       </c>
       <c r="G68" s="47">
-        <v>45.3</v>
+        <v>44.923809523809503</v>
       </c>
       <c r="H68" s="46">
         <v>27.589404748708301</v>
@@ -4293,19 +4293,19 @@
         <v>137</v>
       </c>
       <c r="C69" s="46">
-        <v>55.5833333333333</v>
+        <v>55.55</v>
       </c>
       <c r="D69" s="46">
-        <v>79.05</v>
+        <v>79.233333333333405</v>
       </c>
       <c r="E69" s="46">
-        <v>92.1</v>
+        <v>92.3333333333333</v>
       </c>
       <c r="F69" s="46">
-        <v>41.75</v>
+        <v>41.733333333333299</v>
       </c>
       <c r="G69" s="47">
-        <v>48.5</v>
+        <v>48.44</v>
       </c>
       <c r="H69" s="46">
         <v>42.848013444000003</v>
@@ -4335,19 +4335,19 @@
         <v>138</v>
       </c>
       <c r="C70" s="46">
-        <v>44.344444444444498</v>
+        <v>43.075000000000003</v>
       </c>
       <c r="D70" s="46">
-        <v>65.188888888888897</v>
+        <v>64.3</v>
       </c>
       <c r="E70" s="46">
-        <v>81.655555555555594</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="F70" s="46">
-        <v>45.422222222222203</v>
+        <v>42.3125</v>
       </c>
       <c r="G70" s="47">
-        <v>51.211111111111101</v>
+        <v>48.787500000000001</v>
       </c>
       <c r="H70" s="46">
         <v>37.4610038657</v>
@@ -4377,19 +4377,19 @@
         <v>139</v>
       </c>
       <c r="C71" s="46">
-        <v>34.4</v>
+        <v>23.4866666666667</v>
       </c>
       <c r="D71" s="46">
-        <v>62.184615384615398</v>
+        <v>52.273333333333298</v>
       </c>
       <c r="E71" s="46">
-        <v>82.9538461538462</v>
+        <v>77.593333333333405</v>
       </c>
       <c r="F71" s="46">
-        <v>38.7615384615385</v>
+        <v>37.9</v>
       </c>
       <c r="G71" s="47">
-        <v>45.684615384615398</v>
+        <v>45.3466666666667</v>
       </c>
       <c r="H71" s="46">
         <v>30.897971057133301</v>
@@ -4419,19 +4419,19 @@
         <v>140</v>
       </c>
       <c r="C72" s="46">
-        <v>40.485714285714302</v>
+        <v>40.457142857142898</v>
       </c>
       <c r="D72" s="46">
-        <v>67.042857142857201</v>
+        <v>67.185714285714297</v>
       </c>
       <c r="E72" s="46">
-        <v>87.085714285714303</v>
+        <v>87.285714285714306</v>
       </c>
       <c r="F72" s="46">
-        <v>39.328571428571401</v>
+        <v>39.314285714285703</v>
       </c>
       <c r="G72" s="47">
-        <v>46.06</v>
+        <v>46</v>
       </c>
       <c r="H72" s="46">
         <v>34.329906182000002</v>
@@ -4461,19 +4461,19 @@
         <v>141</v>
       </c>
       <c r="C73" s="46">
-        <v>38.1</v>
+        <v>38.368749999999999</v>
       </c>
       <c r="D73" s="46">
-        <v>55.681249999999999</v>
+        <v>55.768749999999997</v>
       </c>
       <c r="E73" s="46">
-        <v>70.631249999999994</v>
+        <v>70.662499999999994</v>
       </c>
       <c r="F73" s="46">
-        <v>48.231250000000003</v>
+        <v>47.84375</v>
       </c>
       <c r="G73" s="47">
-        <v>53.731250000000003</v>
+        <v>53.381250000000001</v>
       </c>
       <c r="H73" s="46">
         <v>30.212385478200002</v>
@@ -4503,19 +4503,19 @@
         <v>141</v>
       </c>
       <c r="C74" s="46">
-        <v>1.875</v>
+        <v>2.3666666666666698</v>
       </c>
       <c r="D74" s="46">
-        <v>9.5250000000000004</v>
+        <v>11.466666666666701</v>
       </c>
       <c r="E74" s="46">
-        <v>33.774999999999999</v>
+        <v>35.5</v>
       </c>
       <c r="F74" s="46">
-        <v>33.125</v>
+        <v>34.966666666666697</v>
       </c>
       <c r="G74" s="47">
-        <v>41.325000000000003</v>
+        <v>42.7</v>
       </c>
       <c r="H74" s="46">
         <v>0.659214152</v>
@@ -4545,19 +4545,19 @@
         <v>142</v>
       </c>
       <c r="C75" s="50">
-        <v>38.15</v>
+        <v>33.46</v>
       </c>
       <c r="D75" s="50">
-        <v>58.674999999999997</v>
+        <v>57.16</v>
       </c>
       <c r="E75" s="50">
-        <v>77.099999999999994</v>
+        <v>78.180000000000007</v>
       </c>
       <c r="F75" s="50">
-        <v>51</v>
+        <v>44.64</v>
       </c>
       <c r="G75" s="51">
-        <v>56.25</v>
+        <v>50.94</v>
       </c>
       <c r="H75" s="50">
         <v>29.738112190599999</v>
@@ -4587,19 +4587,19 @@
         <v>143</v>
       </c>
       <c r="C76" s="46">
-        <v>2.6714285714285699</v>
+        <v>2.5857142857142899</v>
       </c>
       <c r="D76" s="46">
-        <v>13.785714285714301</v>
+        <v>13.5142857142857</v>
       </c>
       <c r="E76" s="46">
-        <v>36.471428571428604</v>
+        <v>36.214285714285701</v>
       </c>
       <c r="F76" s="46">
-        <v>37.3857142857143</v>
+        <v>37.271428571428601</v>
       </c>
       <c r="G76" s="47">
-        <v>44.871428571428602</v>
+        <v>44.757142857142902</v>
       </c>
       <c r="H76" s="46">
         <v>3.087473470375</v>
@@ -4629,19 +4629,19 @@
         <v>144</v>
       </c>
       <c r="C77" s="46">
-        <v>2.3666666666666698</v>
+        <v>3.4</v>
       </c>
       <c r="D77" s="46">
-        <v>6.3888888888888902</v>
+        <v>8.2333333333333307</v>
       </c>
       <c r="E77" s="46">
-        <v>16.8333333333333</v>
+        <v>20.177777777777798</v>
       </c>
       <c r="F77" s="46">
-        <v>45.133333333333297</v>
+        <v>45.411111111111097</v>
       </c>
       <c r="G77" s="47">
-        <v>50.644444444444503</v>
+        <v>50.866666666666703</v>
       </c>
       <c r="H77" s="46">
         <v>2.7284831494166699</v>
@@ -4671,19 +4671,19 @@
         <v>144</v>
       </c>
       <c r="C78" s="46">
-        <v>0.4</v>
+        <v>0.37407407407407001</v>
       </c>
       <c r="D78" s="46">
-        <v>0.74814814814815001</v>
+        <v>0.68888888888888999</v>
       </c>
       <c r="E78" s="46">
-        <v>1.74074074074074</v>
+        <v>1.49259259259259</v>
       </c>
       <c r="F78" s="46">
-        <v>31.237037037036998</v>
+        <v>30.9444444444444</v>
       </c>
       <c r="G78" s="47">
-        <v>39.303703703703697</v>
+        <v>39.118518518518499</v>
       </c>
       <c r="H78" s="46" t="s">
         <v>43</v>
@@ -4713,19 +4713,19 @@
         <v>145</v>
       </c>
       <c r="C79" s="50">
-        <v>0.50540540540541001</v>
+        <v>0.71081081081080999</v>
       </c>
       <c r="D79" s="50">
-        <v>1.14054054054054</v>
+        <v>1.4783783783783799</v>
       </c>
       <c r="E79" s="50">
-        <v>3.0270270270270299</v>
+        <v>3.4405405405405398</v>
       </c>
       <c r="F79" s="50">
-        <v>33.532432432432401</v>
+        <v>33.486486486486498</v>
       </c>
       <c r="G79" s="51">
-        <v>41.245945945945998</v>
+        <v>41.218918918918902</v>
       </c>
       <c r="H79" s="50">
         <v>0.57213214739999996</v>
@@ -4755,19 +4755,19 @@
         <v>146</v>
       </c>
       <c r="C80" s="46">
-        <v>25.214285714285701</v>
+        <v>26.32</v>
       </c>
       <c r="D80" s="46">
-        <v>44.5571428571429</v>
+        <v>48.84</v>
       </c>
       <c r="E80" s="46">
-        <v>67.171428571428606</v>
+        <v>71.88</v>
       </c>
       <c r="F80" s="46">
-        <v>39.542857142857201</v>
+        <v>38.9</v>
       </c>
       <c r="G80" s="47">
-        <v>46.042857142857102</v>
+        <v>45.56</v>
       </c>
       <c r="H80" s="46">
         <v>16.296036978444398</v>
@@ -4797,19 +4797,19 @@
         <v>147</v>
       </c>
       <c r="C81" s="46">
-        <v>5.1777777777777798</v>
+        <v>5.5222222222222204</v>
       </c>
       <c r="D81" s="46">
-        <v>16.711111111111101</v>
+        <v>17.3333333333333</v>
       </c>
       <c r="E81" s="46">
-        <v>33.344444444444498</v>
+        <v>34.1666666666667</v>
       </c>
       <c r="F81" s="46">
-        <v>34.066666666666698</v>
+        <v>33.877777777777801</v>
       </c>
       <c r="G81" s="47">
-        <v>42.2</v>
+        <v>41.922222222222203</v>
       </c>
       <c r="H81" s="46">
         <v>7.2083686816875003</v>
@@ -4839,19 +4839,19 @@
         <v>148</v>
       </c>
       <c r="C82" s="46">
-        <v>35.292682926829301</v>
+        <v>31.306976744186102</v>
       </c>
       <c r="D82" s="46">
-        <v>57.256097560975597</v>
+        <v>53.890697674418597</v>
       </c>
       <c r="E82" s="46">
-        <v>75.709756097560998</v>
+        <v>74.139534883720899</v>
       </c>
       <c r="F82" s="46">
-        <v>42.768292682926798</v>
+        <v>41.772093023255799</v>
       </c>
       <c r="G82" s="47">
-        <v>49.353846153846199</v>
+        <v>48.582926829268303</v>
       </c>
       <c r="H82" s="46">
         <v>30.683881736195101</v>
@@ -4881,19 +4881,19 @@
         <v>149</v>
       </c>
       <c r="C83" s="50">
-        <v>2.5044943820224699</v>
+        <v>2.4247191011235998</v>
       </c>
       <c r="D83" s="50">
-        <v>8.0752808988764109</v>
+        <v>8.1404494382022499</v>
       </c>
       <c r="E83" s="50">
-        <v>19.175280898876402</v>
+        <v>20.025842696629201</v>
       </c>
       <c r="F83" s="50">
-        <v>35.785393258427</v>
+        <v>35.343820224719103</v>
       </c>
       <c r="G83" s="51">
-        <v>43.167415730337098</v>
+        <v>42.822471910112398</v>
       </c>
       <c r="H83" s="50">
         <v>4.0333422379830504</v>
@@ -4923,19 +4923,19 @@
         <v>150</v>
       </c>
       <c r="C84" s="46">
-        <v>50.510526315789498</v>
+        <v>45.042857142857201</v>
       </c>
       <c r="D84" s="46">
-        <v>75.9157894736842</v>
+        <v>71.628571428571504</v>
       </c>
       <c r="E84" s="46">
-        <v>91.568421052631606</v>
+        <v>89.409523809523805</v>
       </c>
       <c r="F84" s="46">
-        <v>39.747368421052599</v>
+        <v>39.247619047619096</v>
       </c>
       <c r="G84" s="47">
-        <v>46.911764705882398</v>
+        <v>46.594736842105299</v>
       </c>
       <c r="H84" s="46">
         <v>44.518764494999999</v>
@@ -5007,19 +5007,19 @@
         <v>152</v>
       </c>
       <c r="C86" s="46">
-        <v>26.639130434782601</v>
+        <v>22.895238095238099</v>
       </c>
       <c r="D86" s="46">
-        <v>47.756521739130399</v>
+        <v>44.7</v>
       </c>
       <c r="E86" s="46">
-        <v>70.321739130434807</v>
+        <v>69.176190476190499</v>
       </c>
       <c r="F86" s="46">
-        <v>43.165217391304303</v>
+        <v>42.104761904761901</v>
       </c>
       <c r="G86" s="47">
-        <v>49.1782608695652</v>
+        <v>48.376190476190501</v>
       </c>
       <c r="H86" s="46">
         <v>18.7162633730476</v>
@@ -5049,19 +5049,19 @@
         <v>153</v>
       </c>
       <c r="C87" s="46">
-        <v>7.4291666666666698</v>
+        <v>6.6479999999999997</v>
       </c>
       <c r="D87" s="46">
-        <v>24.283333333333299</v>
+        <v>23.007999999999999</v>
       </c>
       <c r="E87" s="46">
-        <v>50.254166666666698</v>
+        <v>50.228000000000002</v>
       </c>
       <c r="F87" s="46">
-        <v>36.983333333333398</v>
+        <v>36.332000000000001</v>
       </c>
       <c r="G87" s="47">
-        <v>44.545833333333299</v>
+        <v>43.963999999999999</v>
       </c>
       <c r="H87" s="46">
         <v>6.4422488533703701</v>
@@ -5133,19 +5133,19 @@
         <v>155</v>
       </c>
       <c r="C89" s="46">
-        <v>1.78529411764706</v>
+        <v>2.0818181818181798</v>
       </c>
       <c r="D89" s="46">
-        <v>5.9647058823529404</v>
+        <v>6.7242424242424299</v>
       </c>
       <c r="E89" s="46">
-        <v>18.5705882352941</v>
+        <v>20.2424242424242</v>
       </c>
       <c r="F89" s="46">
-        <v>38.8735294117647</v>
+        <v>38.339393939393901</v>
       </c>
       <c r="G89" s="47">
-        <v>45.6294117647059</v>
+        <v>45.190909090909102</v>
       </c>
       <c r="H89" s="46">
         <v>0.9931571702973</v>
@@ -5175,19 +5175,19 @@
         <v>156</v>
       </c>
       <c r="C90" s="50">
-        <v>0.3175</v>
+        <v>0.32</v>
       </c>
       <c r="D90" s="50">
-        <v>0.83499999999999996</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="E90" s="50">
-        <v>2.335</v>
+        <v>2.2574999999999998</v>
       </c>
       <c r="F90" s="50">
-        <v>31.94</v>
+        <v>31.81</v>
       </c>
       <c r="G90" s="51">
-        <v>39.89</v>
+        <v>39.8125</v>
       </c>
       <c r="H90" s="50">
         <v>7.3259934333330001E-2</v>
@@ -5217,19 +5217,19 @@
         <v>157</v>
       </c>
       <c r="C91" s="46">
-        <v>45.196551724137898</v>
+        <v>39.535483870967802</v>
       </c>
       <c r="D91" s="46">
-        <v>69.986206896551806</v>
+        <v>65.280645161290295</v>
       </c>
       <c r="E91" s="46">
-        <v>87.6</v>
+        <v>85.219354838709705</v>
       </c>
       <c r="F91" s="46">
-        <v>41.8241379310345</v>
+        <v>40.454838709677396</v>
       </c>
       <c r="G91" s="47">
-        <v>48.544444444444501</v>
+        <v>47.496551724137902</v>
       </c>
       <c r="H91" s="46">
         <v>40.3778121110333</v>
@@ -5259,19 +5259,19 @@
         <v>158</v>
       </c>
       <c r="C92" s="46">
-        <v>14.5875</v>
+        <v>13.1111111111111</v>
       </c>
       <c r="D92" s="46">
-        <v>42.8</v>
+        <v>39.844444444444498</v>
       </c>
       <c r="E92" s="46">
-        <v>72.962500000000006</v>
+        <v>71.355555555555597</v>
       </c>
       <c r="F92" s="46">
-        <v>35.362499999999997</v>
+        <v>34.522222222222197</v>
       </c>
       <c r="G92" s="47">
-        <v>43.375</v>
+        <v>42.7</v>
       </c>
       <c r="H92" s="46">
         <v>15.8442968570909</v>
@@ -5301,19 +5301,19 @@
         <v>159</v>
       </c>
       <c r="C93" s="46">
-        <v>11.76</v>
+        <v>12.25</v>
       </c>
       <c r="D93" s="46">
-        <v>24.76</v>
+        <v>29.15</v>
       </c>
       <c r="E93" s="46">
-        <v>42.04</v>
+        <v>48.783333333333303</v>
       </c>
       <c r="F93" s="46">
-        <v>42.58</v>
+        <v>38.683333333333302</v>
       </c>
       <c r="G93" s="47">
-        <v>48.8</v>
+        <v>45.616666666666703</v>
       </c>
       <c r="H93" s="46">
         <v>18.2108979775</v>
@@ -5343,19 +5343,19 @@
         <v>160</v>
       </c>
       <c r="C94" s="46">
-        <v>8.6636363636363694</v>
+        <v>7.7357142857142902</v>
       </c>
       <c r="D94" s="46">
-        <v>23.990909090909099</v>
+        <v>23.5</v>
       </c>
       <c r="E94" s="46">
-        <v>45.463636363636397</v>
+        <v>47.842857142857198</v>
       </c>
       <c r="F94" s="46">
-        <v>38.109090909090902</v>
+        <v>35.992857142857197</v>
       </c>
       <c r="G94" s="47">
-        <v>45.363636363636402</v>
+        <v>43.6142857142857</v>
       </c>
       <c r="H94" s="46">
         <v>6.2737504503571504</v>
@@ -5385,19 +5385,19 @@
         <v>161</v>
       </c>
       <c r="C95" s="46">
-        <v>45.957142857142898</v>
+        <v>42.9866666666667</v>
       </c>
       <c r="D95" s="46">
-        <v>70.485714285714295</v>
+        <v>68.133333333333297</v>
       </c>
       <c r="E95" s="46">
-        <v>86.307142857142907</v>
+        <v>85.04</v>
       </c>
       <c r="F95" s="46">
-        <v>44.428571428571402</v>
+        <v>44.066666666666698</v>
       </c>
       <c r="G95" s="47">
-        <v>50.623076923076901</v>
+        <v>50.414285714285697</v>
       </c>
       <c r="H95" s="46">
         <v>38.1033031497333</v>
@@ -5427,19 +5427,19 @@
         <v>162</v>
       </c>
       <c r="C96" s="50">
-        <v>2.2999999999999998</v>
+        <v>2.3818181818181801</v>
       </c>
       <c r="D96" s="50">
-        <v>10.218181818181799</v>
+        <v>10.636363636363599</v>
       </c>
       <c r="E96" s="50">
-        <v>32.190909090909102</v>
+        <v>33.181818181818201</v>
       </c>
       <c r="F96" s="50">
-        <v>34.209090909090897</v>
+        <v>33.727272727272698</v>
       </c>
       <c r="G96" s="51">
-        <v>42.109090909090902</v>
+        <v>41.7</v>
       </c>
       <c r="H96" s="50">
         <v>5.5519805031249998</v>
@@ -5469,19 +5469,19 @@
         <v>163</v>
       </c>
       <c r="C97" s="46">
-        <v>41.987096774193503</v>
+        <v>38.228124999999999</v>
       </c>
       <c r="D97" s="46">
-        <v>66.903225806451601</v>
+        <v>63.9375</v>
       </c>
       <c r="E97" s="46">
-        <v>85.741935483871003</v>
+        <v>84.237499999999997</v>
       </c>
       <c r="F97" s="46">
-        <v>41.867741935483899</v>
+        <v>41.246875000000003</v>
       </c>
       <c r="G97" s="47">
-        <v>48.362068965517302</v>
+        <v>47.963333333333402</v>
       </c>
       <c r="H97" s="46">
         <v>34.066034578085699</v>
@@ -5511,19 +5511,19 @@
         <v>164</v>
       </c>
       <c r="C98" s="46">
-        <v>10.069230769230799</v>
+        <v>10.015384615384599</v>
       </c>
       <c r="D98" s="46">
-        <v>30.9384615384615</v>
+        <v>30.930769230769201</v>
       </c>
       <c r="E98" s="46">
-        <v>59.969230769230798</v>
+        <v>60.369230769230803</v>
       </c>
       <c r="F98" s="46">
-        <v>38.200000000000003</v>
+        <v>37.961538461538503</v>
       </c>
       <c r="G98" s="47">
-        <v>45.5230769230769</v>
+        <v>45.330769230769199</v>
       </c>
       <c r="H98" s="46">
         <v>13.061070995894701</v>
@@ -5553,19 +5553,19 @@
         <v>165</v>
       </c>
       <c r="C99" s="50">
-        <v>42.94</v>
+        <v>42.7777777777778</v>
       </c>
       <c r="D99" s="50">
-        <v>65.22</v>
+        <v>65.366666666666703</v>
       </c>
       <c r="E99" s="50">
-        <v>85.19</v>
+        <v>85.522222222222197</v>
       </c>
       <c r="F99" s="50">
-        <v>39.53</v>
+        <v>37.844444444444498</v>
       </c>
       <c r="G99" s="51">
-        <v>46.237499999999997</v>
+        <v>44.657142857142901</v>
       </c>
       <c r="H99" s="50">
         <v>40.329070939416702</v>

--- a/DDAf_2022_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -5857,7 +5857,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
